--- a/Generated Datasets/model_prompt_scores.xlsx
+++ b/Generated Datasets/model_prompt_scores.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude-4.5-Sonnet</t>
+          <t>Mistral-Small-3.2-24b</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.666666666666667</v>
+        <v>2.659567901234568</v>
       </c>
       <c r="D2" t="n">
-        <v>2.652777777777778</v>
+        <v>1.802932098765432</v>
       </c>
       <c r="E2" t="n">
-        <v>2.941666666666667</v>
+        <v>2.709259259259259</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mistral-Small-3.2-24b</t>
+          <t>Claude-4.5-Sonnet</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.663888888888889</v>
+        <v>2.629166666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>1.836111111111111</v>
+        <v>2.614197530864198</v>
       </c>
       <c r="E3" t="n">
-        <v>2.691666666666667</v>
+        <v>2.918981481481481</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.647222222222223</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>2.561111111111111</v>
+        <v>2.538271604938272</v>
       </c>
       <c r="E4" t="n">
-        <v>2.913888888888889</v>
+        <v>2.876543209876543</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.591666666666667</v>
+        <v>2.578240740740741</v>
       </c>
       <c r="D5" t="n">
-        <v>1.938888888888889</v>
+        <v>1.945833333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>2.758333333333333</v>
+        <v>2.778703703703704</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gemma-2-27b-It</t>
+          <t>Gemma-2-9b-It</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.536111111111111</v>
+        <v>2.520061728395062</v>
       </c>
       <c r="D6" t="n">
-        <v>2.458333333333333</v>
+        <v>2.432098765432099</v>
       </c>
       <c r="E6" t="n">
-        <v>2.858333333333333</v>
+        <v>2.835802469135802</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gemma-2-9b-It</t>
+          <t>Gemma-2-27b-It</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.505555555555555</v>
+        <v>2.502006172839506</v>
       </c>
       <c r="D7" t="n">
-        <v>2.441666666666667</v>
+        <v>2.459567901234568</v>
       </c>
       <c r="E7" t="n">
-        <v>2.827777777777778</v>
+        <v>2.85787037037037</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-4</t>
+          <t>Llama-3.3-8b</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.469444444444444</v>
+        <v>2.459722222222222</v>
       </c>
       <c r="D8" t="n">
-        <v>2.363888888888888</v>
+        <v>1.977006172839507</v>
       </c>
       <c r="E8" t="n">
-        <v>2.861111111111111</v>
+        <v>2.678549382716049</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Llama-3.3-8b</t>
+          <t>Claude-Sonnet-4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.419444444444445</v>
+        <v>2.440277777777778</v>
       </c>
       <c r="D9" t="n">
-        <v>2.005555555555556</v>
+        <v>2.316358024691358</v>
       </c>
       <c r="E9" t="n">
-        <v>2.680555555555555</v>
+        <v>2.830246913580247</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.413888888888889</v>
+        <v>2.394907407407407</v>
       </c>
       <c r="D10" t="n">
-        <v>2.633333333333333</v>
+        <v>2.624382716049383</v>
       </c>
       <c r="E10" t="n">
-        <v>2.966666666666667</v>
+        <v>2.953703703703704</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.394444444444445</v>
+        <v>2.364814814814815</v>
       </c>
       <c r="D11" t="n">
-        <v>2.402777777777778</v>
+        <v>2.377469135802469</v>
       </c>
       <c r="E11" t="n">
-        <v>2.833333333333333</v>
+        <v>2.807870370370371</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.372222222222222</v>
+        <v>2.361265432098766</v>
       </c>
       <c r="D12" t="n">
-        <v>2.597222222222222</v>
+        <v>2.580092592592593</v>
       </c>
       <c r="E12" t="n">
-        <v>2.947222222222222</v>
+        <v>2.945061728395062</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Claude-3.7-Sonnet</t>
+          <t>Gemini-2.5-Flash</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.333333333333333</v>
+        <v>2.331635802469136</v>
       </c>
       <c r="D13" t="n">
-        <v>2.419444444444444</v>
+        <v>2.38858024691358</v>
       </c>
       <c r="E13" t="n">
-        <v>2.838888888888889</v>
+        <v>2.631481481481481</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.330555555555555</v>
+        <v>2.319907407407408</v>
       </c>
       <c r="D14" t="n">
-        <v>2.336111111111111</v>
+        <v>2.341975308641976</v>
       </c>
       <c r="E14" t="n">
-        <v>2.755555555555555</v>
+        <v>2.731481481481482</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gemini-2.5-Flash</t>
+          <t>Claude-3.7-Sonnet</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.327777777777778</v>
+        <v>2.312962962962963</v>
       </c>
       <c r="D15" t="n">
-        <v>2.347222222222222</v>
+        <v>2.395370370370371</v>
       </c>
       <c r="E15" t="n">
-        <v>2.638888888888888</v>
+        <v>2.814043209876543</v>
       </c>
     </row>
     <row r="16">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.313888888888889</v>
+        <v>2.296604938271605</v>
       </c>
       <c r="D16" t="n">
-        <v>2.372222222222222</v>
+        <v>2.332407407407407</v>
       </c>
       <c r="E16" t="n">
-        <v>2.916666666666667</v>
+        <v>2.890277777777778</v>
       </c>
     </row>
     <row r="17">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.266666666666667</v>
+        <v>2.268827160493827</v>
       </c>
       <c r="D17" t="n">
-        <v>1.736111111111111</v>
+        <v>1.714814814814815</v>
       </c>
       <c r="E17" t="n">
-        <v>2.669444444444445</v>
+        <v>2.637808641975309</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.255555555555555</v>
+        <v>2.244753086419753</v>
       </c>
       <c r="D18" t="n">
-        <v>2.327777777777778</v>
+        <v>2.315277777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>2.638888888888889</v>
+        <v>2.630555555555556</v>
       </c>
     </row>
     <row r="19">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.244444444444445</v>
+        <v>2.220833333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>2.233333333333333</v>
+        <v>2.223611111111111</v>
       </c>
       <c r="E19" t="n">
-        <v>2.522222222222223</v>
+        <v>2.510648148148148</v>
       </c>
     </row>
     <row r="20">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.233333333333333</v>
+        <v>2.217901234567901</v>
       </c>
       <c r="D20" t="n">
-        <v>2.233333333333333</v>
+        <v>2.216203703703704</v>
       </c>
       <c r="E20" t="n">
-        <v>2.844444444444445</v>
+        <v>2.843827160493827</v>
       </c>
     </row>
     <row r="21">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.216666666666667</v>
+        <v>2.206327160493827</v>
       </c>
       <c r="D21" t="n">
-        <v>2.230555555555555</v>
+        <v>2.201543209876543</v>
       </c>
       <c r="E21" t="n">
-        <v>2.561111111111111</v>
+        <v>2.542746913580247</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gemma-3-27b-It</t>
+          <t>Command-R-08-2024</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.208333333333333</v>
+        <v>2.185185185185185</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219444444444445</v>
+        <v>2.029938271604939</v>
       </c>
       <c r="E22" t="n">
-        <v>2.763888888888888</v>
+        <v>2.481172839506173</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Llama-3.1-405b</t>
+          <t>Gemma-3-27b-It</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.191666666666667</v>
+        <v>2.182870370370371</v>
       </c>
       <c r="D23" t="n">
-        <v>2.138888888888888</v>
+        <v>2.170833333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>2.788888888888889</v>
+        <v>2.737037037037037</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Command-R-Plus-08-2024</t>
+          <t>Llama-3.1-405b</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.188888888888889</v>
+        <v>2.181944444444445</v>
       </c>
       <c r="D24" t="n">
-        <v>2.052777777777778</v>
+        <v>2.13858024691358</v>
       </c>
       <c r="E24" t="n">
-        <v>2.658333333333334</v>
+        <v>2.782253086419753</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Command-R-08-2024</t>
+          <t>Command-R-Plus-08-2024</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.172222222222222</v>
+        <v>2.14429012345679</v>
       </c>
       <c r="D25" t="n">
-        <v>2.022222222222223</v>
+        <v>2.029783950617284</v>
       </c>
       <c r="E25" t="n">
-        <v>2.488888888888888</v>
+        <v>2.669907407407408</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Phi-3.5-mini</t>
+          <t>GPT-5-nano</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.169444444444445</v>
+        <v>2.134876543209876</v>
       </c>
       <c r="D26" t="n">
-        <v>2.186111111111111</v>
+        <v>2.165432098765432</v>
       </c>
       <c r="E26" t="n">
-        <v>2.583333333333333</v>
+        <v>2.463734567901235</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GPT-5-nano</t>
+          <t>GPT-5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.161111111111111</v>
+        <v>2.126234567901235</v>
       </c>
       <c r="D27" t="n">
-        <v>2.191666666666667</v>
+        <v>2.173611111111111</v>
       </c>
       <c r="E27" t="n">
-        <v>2.463888888888889</v>
+        <v>2.661111111111111</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GPT-5</t>
+          <t>Phi-3.5-mini</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.155555555555556</v>
+        <v>2.12391975308642</v>
       </c>
       <c r="D28" t="n">
-        <v>2.202777777777778</v>
+        <v>2.201851851851852</v>
       </c>
       <c r="E28" t="n">
-        <v>2.686111111111111</v>
+        <v>2.577777777777778</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Claude-3.5-Haiku</t>
+          <t>Llama-3.1-8b</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.136111111111111</v>
+        <v>2.118672839506173</v>
       </c>
       <c r="D29" t="n">
-        <v>2.436111111111111</v>
+        <v>2.064969135802469</v>
       </c>
       <c r="E29" t="n">
-        <v>2.908333333333333</v>
+        <v>2.825154320987654</v>
       </c>
     </row>
     <row r="30">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.127777777777778</v>
+        <v>2.114660493827161</v>
       </c>
       <c r="D30" t="n">
-        <v>2.130555555555556</v>
+        <v>2.090277777777777</v>
       </c>
       <c r="E30" t="n">
-        <v>2.247222222222222</v>
+        <v>2.206635802469136</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Grok-4-Fast</t>
+          <t>Grok-3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.116666666666667</v>
+        <v>2.10570987654321</v>
       </c>
       <c r="D31" t="n">
-        <v>2.183333333333333</v>
+        <v>2.139197530864198</v>
       </c>
       <c r="E31" t="n">
-        <v>2.719444444444444</v>
+        <v>2.876388888888889</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Grok-3</t>
+          <t>Grok-4-Fast</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.113888888888889</v>
+        <v>2.093672839506173</v>
       </c>
       <c r="D32" t="n">
-        <v>2.138888888888888</v>
+        <v>2.160030864197531</v>
       </c>
       <c r="E32" t="n">
-        <v>2.891666666666667</v>
+        <v>2.700308641975309</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1059,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.111111111111111</v>
+        <v>2.091203703703703</v>
       </c>
       <c r="D33" t="n">
-        <v>2.183333333333333</v>
+        <v>2.175</v>
       </c>
       <c r="E33" t="n">
-        <v>2.677777777777778</v>
+        <v>2.633950617283951</v>
       </c>
     </row>
     <row r="34">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.1</v>
+        <v>2.087962962962963</v>
       </c>
       <c r="D34" t="n">
-        <v>1.930555555555556</v>
+        <v>1.892901234567901</v>
       </c>
       <c r="E34" t="n">
-        <v>2.738888888888888</v>
+        <v>2.745524691358025</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Llama-3.1-8b</t>
+          <t>Claude-3.5-Haiku</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.094444444444444</v>
+        <v>2.085493827160493</v>
       </c>
       <c r="D35" t="n">
-        <v>2.069444444444444</v>
+        <v>2.400462962962963</v>
       </c>
       <c r="E35" t="n">
-        <v>2.830555555555555</v>
+        <v>2.90462962962963</v>
       </c>
     </row>
     <row r="36">
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.091666666666667</v>
+        <v>2.062345679012346</v>
       </c>
       <c r="D36" t="n">
-        <v>1.777777777777778</v>
+        <v>1.758796296296296</v>
       </c>
       <c r="E36" t="n">
-        <v>2.336111111111111</v>
+        <v>2.314197530864197</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Llama-3.3-70b</t>
+          <t>Gemma-3-12b-It</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.069444444444444</v>
+        <v>2.048765432098766</v>
       </c>
       <c r="D37" t="n">
-        <v>2.227777777777777</v>
+        <v>2.912962962962963</v>
       </c>
       <c r="E37" t="n">
-        <v>2.727777777777778</v>
+        <v>2.818518518518518</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gemma-3-12b-It</t>
+          <t>Llama-3.3-70b</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.058333333333333</v>
+        <v>2.044753086419753</v>
       </c>
       <c r="D38" t="n">
-        <v>2.905555555555556</v>
+        <v>2.210802469135802</v>
       </c>
       <c r="E38" t="n">
-        <v>2.811111111111111</v>
+        <v>2.724845679012346</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Llama-3-70b</t>
+          <t>Qwen3-32b</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.058333333333333</v>
+        <v>2.032253086419753</v>
       </c>
       <c r="D39" t="n">
-        <v>2.013888888888889</v>
+        <v>1.930246913580247</v>
       </c>
       <c r="E39" t="n">
-        <v>2.694444444444444</v>
+        <v>2.430864197530864</v>
       </c>
     </row>
     <row r="40">
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.041666666666667</v>
+        <v>2.024537037037037</v>
       </c>
       <c r="D40" t="n">
-        <v>2.127777777777778</v>
+        <v>2.1</v>
       </c>
       <c r="E40" t="n">
-        <v>2.227777777777778</v>
+        <v>2.16033950617284</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Qwen3-32b</t>
+          <t>Llama-3-70b</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.038888888888889</v>
+        <v>2.016975308641975</v>
       </c>
       <c r="D41" t="n">
-        <v>1.947222222222222</v>
+        <v>1.99891975308642</v>
       </c>
       <c r="E41" t="n">
-        <v>2.463888888888889</v>
+        <v>2.716975308641975</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.022222222222223</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>2.197222222222222</v>
+        <v>2.150308641975309</v>
       </c>
       <c r="E42" t="n">
-        <v>2.541666666666667</v>
+        <v>2.518518518518519</v>
       </c>
     </row>
     <row r="43">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.013888888888889</v>
+        <v>1.999537037037038</v>
       </c>
       <c r="D43" t="n">
-        <v>2.072222222222222</v>
+        <v>2.08425925925926</v>
       </c>
       <c r="E43" t="n">
-        <v>2.597222222222222</v>
+        <v>2.604012345679013</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.988888888888889</v>
+        <v>1.983179012345679</v>
       </c>
       <c r="D44" t="n">
-        <v>2.030555555555556</v>
+        <v>1.998302469135802</v>
       </c>
       <c r="E44" t="n">
-        <v>2.591666666666667</v>
+        <v>2.572530864197531</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.980555555555555</v>
+        <v>1.975</v>
       </c>
       <c r="D45" t="n">
-        <v>2.052777777777778</v>
+        <v>2.046913580246914</v>
       </c>
       <c r="E45" t="n">
-        <v>2.677777777777778</v>
+        <v>2.656481481481482</v>
       </c>
     </row>
     <row r="46">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GPT-4.1</t>
+          <t>Llama-3.2-3b</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.963888888888889</v>
+        <v>1.948302469135802</v>
       </c>
       <c r="D46" t="n">
-        <v>1.963888888888889</v>
+        <v>2.043827160493827</v>
       </c>
       <c r="E46" t="n">
-        <v>2.6</v>
+        <v>2.517901234567901</v>
       </c>
     </row>
     <row r="47">
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.952777777777778</v>
+        <v>1.936265432098766</v>
       </c>
       <c r="D47" t="n">
-        <v>2.002777777777778</v>
+        <v>1.989506172839506</v>
       </c>
       <c r="E47" t="n">
-        <v>2.447222222222222</v>
+        <v>2.415895061728395</v>
       </c>
     </row>
     <row r="48">
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.938888888888889</v>
+        <v>1.931172839506172</v>
       </c>
       <c r="D48" t="n">
-        <v>1.983333333333333</v>
+        <v>1.973148148148148</v>
       </c>
       <c r="E48" t="n">
-        <v>2.302777777777778</v>
+        <v>2.285185185185186</v>
       </c>
     </row>
     <row r="49">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Command-R7b</t>
+          <t>GPT-4.1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.938888888888889</v>
+        <v>1.920061728395062</v>
       </c>
       <c r="D49" t="n">
-        <v>1.95</v>
+        <v>1.922376543209876</v>
       </c>
       <c r="E49" t="n">
-        <v>2.061111111111111</v>
+        <v>2.571604938271605</v>
       </c>
     </row>
     <row r="50">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Qwen3-8b</t>
+          <t>Command-R7b</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.911111111111111</v>
+        <v>1.90679012345679</v>
       </c>
       <c r="D50" t="n">
-        <v>1.980555555555556</v>
+        <v>1.971141975308642</v>
       </c>
       <c r="E50" t="n">
-        <v>2.408333333333333</v>
+        <v>2.026543209876543</v>
       </c>
     </row>
     <row r="51">
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Llama-3.2-3b</t>
+          <t>Mistral-Medium-3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.894444444444445</v>
+        <v>1.896141975308642</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1.951388888888889</v>
       </c>
       <c r="E51" t="n">
-        <v>2.508333333333333</v>
+        <v>2.672685185185185</v>
       </c>
     </row>
     <row r="52">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Llama-4-Scout</t>
+          <t>Phi-3-medium</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.894444444444444</v>
+        <v>1.892592592592593</v>
       </c>
       <c r="D52" t="n">
-        <v>2.019444444444444</v>
+        <v>1.877777777777778</v>
       </c>
       <c r="E52" t="n">
-        <v>2.361111111111111</v>
+        <v>1.833641975308642</v>
       </c>
     </row>
     <row r="53">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mistral-Medium-3</t>
+          <t>Llama-4-Scout</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.891666666666667</v>
+        <v>1.891820987654321</v>
       </c>
       <c r="D53" t="n">
-        <v>1.980555555555556</v>
+        <v>2.020679012345679</v>
       </c>
       <c r="E53" t="n">
-        <v>2.716666666666667</v>
+        <v>2.349228395061728</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Phi-3-medium</t>
+          <t>Qwen3-8b</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.888888888888889</v>
+        <v>1.883796296296297</v>
       </c>
       <c r="D54" t="n">
-        <v>1.916666666666667</v>
+        <v>1.947685185185185</v>
       </c>
       <c r="E54" t="n">
-        <v>1.833333333333333</v>
+        <v>2.36358024691358</v>
       </c>
     </row>
     <row r="55">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>Llama-3.2-1b</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.866666666666667</v>
+        <v>1.881635802469136</v>
       </c>
       <c r="D55" t="n">
-        <v>1.877777777777778</v>
+        <v>1.952314814814815</v>
       </c>
       <c r="E55" t="n">
-        <v>2.319444444444445</v>
+        <v>2.579320987654321</v>
       </c>
     </row>
     <row r="56">
@@ -1492,17 +1492,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Gemma-3-4b-It</t>
+          <t>Qwen3-14b</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.852777777777778</v>
+        <v>1.862191358024691</v>
       </c>
       <c r="D56" t="n">
-        <v>2.877777777777778</v>
+        <v>1.876234567901234</v>
       </c>
       <c r="E56" t="n">
-        <v>2.816666666666667</v>
+        <v>2.363734567901235</v>
       </c>
     </row>
     <row r="57">
@@ -1511,17 +1511,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Llama-3.2-1b</t>
+          <t>Gemma-3-4b-It</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.852777777777778</v>
+        <v>1.861265432098765</v>
       </c>
       <c r="D57" t="n">
-        <v>1.916666666666667</v>
+        <v>2.87962962962963</v>
       </c>
       <c r="E57" t="n">
-        <v>2.555555555555555</v>
+        <v>2.819753086419754</v>
       </c>
     </row>
     <row r="58">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gemma-3n-2B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.85</v>
+        <v>1.840895061728395</v>
       </c>
       <c r="D58" t="n">
-        <v>2.85</v>
+        <v>1.84891975308642</v>
       </c>
       <c r="E58" t="n">
-        <v>2.816666666666667</v>
+        <v>2.311265432098766</v>
       </c>
     </row>
     <row r="59">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GPT-4.1-nano</t>
+          <t>Mistral-large-2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.847222222222222</v>
+        <v>1.838117283950617</v>
       </c>
       <c r="D59" t="n">
-        <v>1.794444444444445</v>
+        <v>1.84675925925926</v>
       </c>
       <c r="E59" t="n">
-        <v>2.069444444444444</v>
+        <v>2.652314814814815</v>
       </c>
     </row>
     <row r="60">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mistral-large-2</t>
+          <t>GPT-4.1-nano</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.841666666666667</v>
+        <v>1.837962962962963</v>
       </c>
       <c r="D60" t="n">
-        <v>1.847222222222222</v>
+        <v>1.784104938271605</v>
       </c>
       <c r="E60" t="n">
-        <v>2.694444444444445</v>
+        <v>2.043672839506173</v>
       </c>
     </row>
     <row r="61">
@@ -1587,17 +1587,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Qwen3-14b</t>
+          <t>Gemma-3n-2B</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.841666666666667</v>
+        <v>1.821296296296296</v>
       </c>
       <c r="D61" t="n">
-        <v>1.930555555555556</v>
+        <v>2.858641975308642</v>
       </c>
       <c r="E61" t="n">
-        <v>2.408333333333333</v>
+        <v>2.803703703703704</v>
       </c>
     </row>
     <row r="62">
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.822222222222222</v>
+        <v>1.783796296296296</v>
       </c>
       <c r="D62" t="n">
-        <v>1.813888888888889</v>
+        <v>1.781172839506173</v>
       </c>
       <c r="E62" t="n">
-        <v>2.386111111111112</v>
+        <v>2.333950617283951</v>
       </c>
     </row>
     <row r="63">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.766666666666667</v>
+        <v>1.750771604938272</v>
       </c>
       <c r="D63" t="n">
-        <v>1.652777777777778</v>
+        <v>1.682870370370371</v>
       </c>
       <c r="E63" t="n">
-        <v>2.069444444444445</v>
+        <v>2.039351851851852</v>
       </c>
     </row>
     <row r="64">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.716666666666667</v>
+        <v>1.719444444444444</v>
       </c>
       <c r="D64" t="n">
-        <v>1.752777777777778</v>
+        <v>1.730555555555555</v>
       </c>
       <c r="E64" t="n">
-        <v>2.372222222222222</v>
+        <v>2.319135802469136</v>
       </c>
     </row>
     <row r="65">
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.129320987654321</v>
+        <v>2.116174309229865</v>
       </c>
       <c r="D65" t="n">
-        <v>2.153615520282187</v>
+        <v>2.139065255731923</v>
       </c>
       <c r="E65" t="n">
-        <v>2.611596119929454</v>
+        <v>2.595409563002156</v>
       </c>
     </row>
   </sheetData>
